--- a/ChEEQ_inputData.xlsx
+++ b/ChEEQ_inputData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ualg365-my.sharepoint.com/personal/rgandrade_ualg_pt/Documents/TextoElong_ongoing/ChEEQTool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{8583CE70-8D2F-4901-9B62-15AF4B9D086A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3DC644E-8458-4364-B3E8-66ABFB3DB0F1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{437AC764-126C-4EE6-96AA-5A9965BAB628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D995DD41-2314-49BF-B936-79C57E3055CE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{D995DD41-2314-49BF-B936-79C57E3055CE}"/>
   </bookViews>
   <sheets>
     <sheet name="REF_DATA" sheetId="1" r:id="rId1"/>
@@ -660,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7132307-30FC-4821-9A28-4122D374980D}">
   <dimension ref="A1:N417"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A387" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="A387" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O388" sqref="O388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12335,10 +12335,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592185E0-32C6-4CFB-9D0B-B9E999D7CFD0}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12346,7 +12346,7 @@
     <col min="14" max="14" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12390,7 +12390,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
         <v>16</v>
       </c>
@@ -12417,10 +12417,10 @@
         <v>16</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
         <v>16</v>
       </c>
@@ -12447,10 +12447,10 @@
         <v>16</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
         <v>16</v>
       </c>
@@ -12477,10 +12477,10 @@
         <v>16</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
         <v>16</v>
       </c>
@@ -12507,10 +12507,10 @@
         <v>16</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
         <v>16</v>
       </c>
@@ -12539,10 +12539,11 @@
         <v>16</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
         <v>16</v>
       </c>
@@ -12571,10 +12572,10 @@
         <v>16</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
         <v>16</v>
       </c>
@@ -12609,10 +12610,10 @@
         <v>16</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
         <v>16</v>
       </c>
@@ -12647,10 +12648,10 @@
         <v>16</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
         <v>16</v>
       </c>
@@ -12685,10 +12686,10 @@
         <v>16</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
         <v>16</v>
       </c>
@@ -12723,10 +12724,10 @@
         <v>16</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
         <v>16</v>
       </c>
@@ -12761,10 +12762,10 @@
         <v>16</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
         <v>16</v>
       </c>
@@ -12799,10 +12800,10 @@
         <v>16</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="28">
         <v>16</v>
       </c>
@@ -12837,10 +12838,10 @@
         <v>16</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
         <v>16</v>
       </c>
@@ -12875,10 +12876,10 @@
         <v>16</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
         <v>16</v>
       </c>
@@ -12913,7 +12914,7 @@
         <v>16</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -12951,7 +12952,7 @@
         <v>16</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -12980,7 +12981,7 @@
         <v>17</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -13009,7 +13010,7 @@
         <v>17</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -13041,7 +13042,7 @@
         <v>17</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -13073,7 +13074,7 @@
         <v>17</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -13105,7 +13106,7 @@
         <v>17</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -13137,7 +13138,7 @@
         <v>17</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -13169,7 +13170,7 @@
         <v>17</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -13207,7 +13208,7 @@
         <v>17</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -13245,7 +13246,7 @@
         <v>17</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -13283,7 +13284,7 @@
         <v>17</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -13321,7 +13322,7 @@
         <v>17</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
@@ -13359,7 +13360,7 @@
         <v>17</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
@@ -13397,7 +13398,7 @@
         <v>17</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
@@ -13435,7 +13436,7 @@
         <v>17</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
